--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -638,9 +638,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId29" display="Test@123"/>
-    <hyperlink ref="M2" r:id="rId30"/>
-    <hyperlink ref="B2" r:id="rId31"/>
+    <hyperlink ref="C2" r:id="rId44" display="Test@123"/>
+    <hyperlink ref="M2" r:id="rId45"/>
+    <hyperlink ref="B2" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
